--- a/biology/Médecine/Protéine_de_liaison_à_la_vitamine_D/Protéine_de_liaison_à_la_vitamine_D.xlsx
+++ b/biology/Médecine/Protéine_de_liaison_à_la_vitamine_D/Protéine_de_liaison_à_la_vitamine_D.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_de_liaison_%C3%A0_la_vitamine_D</t>
+          <t>Protéine_de_liaison_à_la_vitamine_D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La protéine de liaison à la vitamine D ou vitamine D-binding protein (DBP), aussi à l'origine connue comme gc-globuline, est une protéine codée chez l'humain par le gène GC situé sur le chromosome 4 humain[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine de liaison à la vitamine D ou vitamine D-binding protein (DBP), aussi à l'origine connue comme gc-globuline, est une protéine codée chez l'humain par le gène GC situé sur le chromosome 4 humain,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_de_liaison_%C3%A0_la_vitamine_D</t>
+          <t>Protéine_de_liaison_à_la_vitamine_D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La protéine de liaison à la vitamine D est une alpha-globuline glycosylée d'environ 58 kDa. Ses 458 acides aminés sont codés par 1690 nucléotides sur le chromosome 4 (4q11q13). Sa structure primaire contient 28 résidus cystéine formant de multiples ponts disulfures. La protéine de liaison à la vitamine D possède trois domaines protéiques : le domaine 1 est composé de 10 hélices alpha, le domaine 2 de 9 et le domaine 3 de 4[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine de liaison à la vitamine D est une alpha-globuline glycosylée d'environ 58 kDa. Ses 458 acides aminés sont codés par 1690 nucléotides sur le chromosome 4 (4q11q13). Sa structure primaire contient 28 résidus cystéine formant de multiples ponts disulfures. La protéine de liaison à la vitamine D possède trois domaines protéiques : le domaine 1 est composé de 10 hélices alpha, le domaine 2 de 9 et le domaine 3 de 4,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_de_liaison_%C3%A0_la_vitamine_D</t>
+          <t>Protéine_de_liaison_à_la_vitamine_D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La protéine de liaison à la vitamine D appartient à la famille des albumines, tout comme l'albumine sérique humaine (ou sérumalbumine) et l'alpha-fœtoprotéine. C'est une protéine multifonctionnelle qui se trouve notamment dans le plasma, le liquide ascitique, le liquide céphalo-rachidien et à la surface de nombreux types de cellules. 
-La protéine de liaison à la vitamine D peut lier les différentes formes de la vitamine D, parmi lesquelles l'ergocalciférol (vitamine D2) et le cholécalciférol (vitamine D3), les formes 25-hydroxylées (par exemple le 25-hydroxycholécalciférol) et la forme active 1,25-dihydroxycholécalciférol (calcitriol). La majeure partie de la vitamine D dans le sang est liée à cette protéine. Elle transporte les métabolites de la vitamine D entre la peau, le foie et les reins, puis sur les différents tissus cibles[9].
-Elle se lie également à des acides gras ou à des monomères d'actine[10].
+La protéine de liaison à la vitamine D peut lier les différentes formes de la vitamine D, parmi lesquelles l'ergocalciférol (vitamine D2) et le cholécalciférol (vitamine D3), les formes 25-hydroxylées (par exemple le 25-hydroxycholécalciférol) et la forme active 1,25-dihydroxycholécalciférol (calcitriol). La majeure partie de la vitamine D dans le sang est liée à cette protéine. Elle transporte les métabolites de la vitamine D entre la peau, le foie et les reins, puis sur les différents tissus cibles.
+Elle se lie également à des acides gras ou à des monomères d'actine.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_de_liaison_%C3%A0_la_vitamine_D</t>
+          <t>Protéine_de_liaison_à_la_vitamine_D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est synthétisée par les hépatocytes et sécrétée dans le sang.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_de_liaison_%C3%A0_la_vitamine_D</t>
+          <t>Protéine_de_liaison_à_la_vitamine_D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Variations génétiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plus d'une centaine de variants génétiques du gène GC sont connus, avec des affinités variables avec la vitamine S[11]. Cela explique des différences de concentration de 25-hydroxyvitamine D circulante[12]. Ils ont été proposés pour expliquer certaines différences dans la concentration en vitamine D chez les différents groupes populationnels[13] et une corrélation a été mise en évidence entre la présence de ces variants et la réponse à une supplémentation en vitamine D[14].
-La délétion homozygote du gène entraîne un tableau de fragilité osseuse avec ostéopénie, un taux sanguin de vitamine D effondrée, résistante à la supplémentation[15].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus d'une centaine de variants génétiques du gène GC sont connus, avec des affinités variables avec la vitamine S. Cela explique des différences de concentration de 25-hydroxyvitamine D circulante. Ils ont été proposés pour expliquer certaines différences dans la concentration en vitamine D chez les différents groupes populationnels et une corrélation a été mise en évidence entre la présence de ces variants et la réponse à une supplémentation en vitamine D.
+La délétion homozygote du gène entraîne un tableau de fragilité osseuse avec ostéopénie, un taux sanguin de vitamine D effondrée, résistante à la supplémentation.
 </t>
         </is>
       </c>
